--- a/data/Data viz.xlsx
+++ b/data/Data viz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianmasse/Developer/Classes/CSC630/independent_work/Invesco Monthly Prefomrance Vis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29DC46F-360E-A541-99A1-0834D39DD9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E28A51D-D736-F646-A804-07EDA8CE49C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{B7AED2FB-05CA-43F7-817E-B5A6AD13A117}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="119">
   <si>
     <t>Index Name</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>Global: Emerging</t>
+  </si>
+  <si>
+    <t>note</t>
   </si>
 </sst>
 </file>
@@ -851,7 +854,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -921,8 +924,8 @@
       <c r="E3" s="6">
         <v>-7.9144842089874396E-3</v>
       </c>
-      <c r="F3" s="6">
-        <v>0.28692277814147399</v>
+      <c r="F3" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
